--- a/biology/Microbiologie/Anoecida/Anoecida.xlsx
+++ b/biology/Microbiologie/Anoecida/Anoecida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anoecida sont un ordre d'organismes eucaryotes hétérocontes de l'embranchement des Bigyra et du super-ordre des Cyathobodoniae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille des Caecitellidae Cavalier-Smith, 2006
 Genre Halocafeteria Park, Cho &amp; Simpson, 2006
@@ -547,7 +561,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Thomas Cavalier-Smith, 1997. « Sagenista and Bigyra, two phyla of heterotrophic heterokont chromists », Archiv für Protistenkunde, vol. 148, n. 3, p. 253–267, DOI 10.1016/S0003-9365(97)80006-1.
 (en) Thomas Cavalier-Smith &amp; Ema E-Yung Chao (d) , 2006. « Phylogeny and megasystematics of phagotrophic heterokonts (kingdom Chromista) », Journal of Molecular Evolution, vol. 62, p. 388–420, DOI 10.1007/s00239-004-0353-8.</t>
